--- a/newTest5.xlsx
+++ b/newTest5.xlsx
@@ -1572,9 +1572,6 @@
     <t>[[\frac{cos x}{sin x}]]</t>
   </si>
   <si>
-    <t>[[\frac{cos(90 - x)^\cir}{sin(90 - x)^\cir]]</t>
-  </si>
-  <si>
     <t>[[-tan x]]</t>
   </si>
   <si>
@@ -1747,6 +1744,10 @@
   </si>
   <si>
     <t>Alley bought a piece of land for [[\textdollar 47,890]]. It increased in value every year by [[2%]]. Which of the following best describes the model of the price of the land every year after she bought it if [[t]] is the number of years after she bought the land?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[\frac{cos(90 - x)^\circ}{sin(90 - x)^\circ]]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5013,7 +5014,7 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>314</v>
@@ -6222,10 +6223,10 @@
         <v>390</v>
       </c>
       <c r="F101" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="G101" s="16" t="s">
         <v>391</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>392</v>
       </c>
       <c r="H101" s="16" t="s">
         <v>4</v>
@@ -6252,22 +6253,22 @@
         <v>313</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="H102" s="16" t="s">
         <v>5</v>
@@ -6294,22 +6295,22 @@
         <v>313</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="H103" s="16" t="s">
         <v>4</v>
@@ -6337,7 +6338,7 @@
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -6369,19 +6370,19 @@
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="H105" s="16" t="s">
         <v>4</v>
@@ -6409,19 +6410,19 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="H106" s="16" t="s">
         <v>6</v>
@@ -6449,7 +6450,7 @@
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -6481,19 +6482,19 @@
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="H108" s="16" t="s">
         <v>3</v>
@@ -6521,19 +6522,19 @@
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="H109" s="16" t="s">
         <v>4</v>
@@ -6561,7 +6562,7 @@
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -6593,7 +6594,7 @@
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D111" s="2">
         <v>0.43</v>
@@ -6632,10 +6633,10 @@
         <v>313</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="D112" s="2">
         <v>3</v>
@@ -6675,7 +6676,7 @@
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
@@ -6707,19 +6708,19 @@
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="H114" s="16" t="s">
         <v>4</v>
@@ -6746,17 +6747,17 @@
         <v>313</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="21"/>
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
       <c r="H115" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -6781,7 +6782,7 @@
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="21"/>
@@ -6813,19 +6814,19 @@
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="H117" s="16" t="s">
         <v>4</v>
@@ -6853,7 +6854,7 @@
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D118" s="2">
         <v>9</v>
@@ -6892,10 +6893,10 @@
         <v>313</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="D119" s="2">
         <v>1</v>
